--- a/docs/eda_tests.xlsx
+++ b/docs/eda_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72364bdb7555e539/Documentos/GitHub/eda-o-matic/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{E01431C4-BD6D-4122-BDD3-91DC71FBB94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9229826-3EEF-4CF2-98CA-C8990E52EC9A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{E01431C4-BD6D-4122-BDD3-91DC71FBB94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD45078A-D1C4-4FC4-84DB-F34C200272D7}"/>
   <bookViews>
-    <workbookView xWindow="34050" yWindow="4965" windowWidth="22860" windowHeight="10215" xr2:uid="{3AA627A5-71EE-4E50-888B-47FA87E80BB2}"/>
+    <workbookView xWindow="29865" yWindow="8265" windowWidth="24225" windowHeight="10215" activeTab="1" xr2:uid="{3AA627A5-71EE-4E50-888B-47FA87E80BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="validacoes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="312">
   <si>
     <t>df['col'].str.strip().eq('')</t>
   </si>
@@ -264,9 +264,6 @@
     <t>undefined</t>
   </si>
   <si>
-    <t>null_empty</t>
-  </si>
-  <si>
     <t>validation</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>type_out</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -934,6 +925,21 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>routine</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>main nomebook</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
   </si>
   <si>
     <r>
@@ -941,7 +947,6 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -952,7 +957,6 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
@@ -966,7 +970,6 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -977,7 +980,6 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
@@ -991,7 +993,6 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
@@ -1000,7 +1001,6 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1011,14 +1011,26 @@
     </r>
   </si>
   <si>
-    <t>routine</t>
+    <t>Tamanho: 7.56 KB Linhas/Colunas: 100/21</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>Faltantes: nenhuma Nomes_duplicados: noenti</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,7 +1076,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1072,32 +1083,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
     <font>
-      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1273,7 +1288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,57 +1307,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1677,1872 +1683,1872 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5128729E-CAE0-4D53-8104-6E53847E91FB}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="10" customWidth="1"/>
-    <col min="5" max="5" width="60.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="38.1796875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="36.36328125" style="10"/>
+    <col min="1" max="1" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="38.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="36.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="22" customFormat="1">
-      <c r="A1" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1">
+      <c r="A1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="F1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="25" customFormat="1">
+      <c r="A2" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="B2" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="25" customFormat="1">
+      <c r="A3" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="26" customFormat="1">
-      <c r="A2" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="26" customFormat="1">
-      <c r="A3" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="25" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="D28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="28"/>
+      <c r="H41" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="D43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="D44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="C45" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="28"/>
+      <c r="H45" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="28"/>
+      <c r="H46" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="28"/>
+      <c r="H47" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="25">
+      <c r="A48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="C48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="C49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="28"/>
+      <c r="H50" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="25">
+      <c r="A51" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="23.5" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="10" t="s">
+      <c r="C54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="10" t="s">
+      <c r="C55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="28"/>
+      <c r="H55" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="25">
+      <c r="A56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="C56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="25">
+      <c r="A57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="C57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="H57" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="10" t="s">
+      <c r="C58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="H58" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="29">
+      <c r="A59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" s="10" t="s">
+      <c r="C59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="25">
-      <c r="A48" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" s="10" t="s">
+      <c r="C60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="H60" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="C61" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B50" s="10" t="s">
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="25">
-      <c r="A51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A52" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="31"/>
-      <c r="H52" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B54" s="10" t="s">
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B55" s="10" t="s">
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C55" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="25">
-      <c r="A56" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" s="10" t="s">
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="25">
-      <c r="A57" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I57" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="29">
-      <c r="A59" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="B64" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="10" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:J60">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"undefined"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3562,81 +3568,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36817D9-C7BA-4FE8-A18B-25BFF5FBAE44}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="16.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11">
@@ -4006,12 +4059,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:H2">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"undefined"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"undefined"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4046,69 +4099,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>262</v>
+      <c r="A1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
